--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2274284.386238121</v>
+        <v>2267273.657122126</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>166.5461637302416</v>
+        <v>266.8713943789343</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>82.82916549804797</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -823,7 +823,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>9.863149079887677</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>59.30888115713332</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>42.82093054493237</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>218.970766274237</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>71.59111599851437</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.65457244093113</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>168.2434354473122</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.38032157353526</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>317.4015966690142</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>95.35420068589659</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>139.519394494172</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>4.115973668572678</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372793</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>118.9366226276279</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993879</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177851</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681703</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.685168714561</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901692</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>73.99029442549832</v>
+        <v>125.763973586836</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>177.9002539350236</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>247.9971163609556</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>53.01659347120223</v>
       </c>
       <c r="D16" t="n">
-        <v>12.16749065392418</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059243</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596574993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973565005</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.57601873167837</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.72314698196078</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380051</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667962</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.97275566644689</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883902</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541106</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658299</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.882059701038912</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656623</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658121</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>637.7408975487353</v>
+        <v>1111.663327967178</v>
       </c>
       <c r="C2" t="n">
-        <v>637.7408975487353</v>
+        <v>718.4878264701083</v>
       </c>
       <c r="D2" t="n">
-        <v>637.7408975487353</v>
+        <v>333.046697686776</v>
       </c>
       <c r="E2" t="n">
-        <v>469.5124493363701</v>
+        <v>63.47963265754941</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>50.62559822793123</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793372</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978661</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207959</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845421</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.78296973775</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V2" t="n">
-        <v>1794.68324672679</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="W2" t="n">
-        <v>1423.684211695077</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="X2" t="n">
-        <v>1034.231606628134</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="Y2" t="n">
-        <v>637.7408975487353</v>
+        <v>1512.158073678575</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021447</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C3" t="n">
-        <v>572.1475941667427</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D3" t="n">
-        <v>442.058626788223</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991107</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>330.0258031443423</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>813.5918890426556</v>
       </c>
       <c r="M3" t="n">
-        <v>640.1767275127957</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="N3" t="n">
-        <v>1178.435512522889</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675987</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343106</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>526.6598252132781</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C4" t="n">
-        <v>356.4547072792673</v>
+        <v>510.0211067816483</v>
       </c>
       <c r="D4" t="n">
-        <v>200.821594181782</v>
+        <v>354.387993684163</v>
       </c>
       <c r="E4" t="n">
-        <v>200.821594181782</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>934.979905087936</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>934.979905087936</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U4" t="n">
-        <v>934.979905087936</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V4" t="n">
-        <v>934.979905087936</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="W4" t="n">
-        <v>934.979905087936</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="X4" t="n">
-        <v>934.979905087936</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="Y4" t="n">
-        <v>711.8678439045793</v>
+        <v>680.2262247156591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.7255104928673</v>
+        <v>1598.227016055323</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596594</v>
+        <v>1598.227016055323</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596594</v>
+        <v>1598.227016055323</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596594</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634777</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207959</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845421</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.78296973775</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.2694146788</v>
+        <v>1819.409608251522</v>
       </c>
       <c r="V5" t="n">
-        <v>1666.162605382319</v>
+        <v>1598.227016055323</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.163570350606</v>
+        <v>1598.227016055323</v>
       </c>
       <c r="X5" t="n">
-        <v>905.7109652836631</v>
+        <v>1598.227016055323</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.2202562042642</v>
+        <v>1598.227016055323</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718.4298364179177</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C6" t="n">
-        <v>567.7756059780099</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D6" t="n">
-        <v>437.6866385994903</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>407.9705203262581</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.433443595208</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.78296973775</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2078.551668051456</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1901.567856250364</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1691.504712929006</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1468.964711300073</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1238.84746543336</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1049.540387783372</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y6" t="n">
-        <v>870.2261708588791</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>539.2807660163473</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="C7" t="n">
-        <v>369.0756480823365</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="D7" t="n">
-        <v>369.0756480823365</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="E7" t="n">
-        <v>369.0756480823365</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>928.147670872708</v>
       </c>
       <c r="V7" t="n">
-        <v>709.2236301045415</v>
+        <v>662.1683256935322</v>
       </c>
       <c r="W7" t="n">
-        <v>709.2236301045415</v>
+        <v>662.1683256935322</v>
       </c>
       <c r="X7" t="n">
-        <v>539.2807660163473</v>
+        <v>428.0880034765153</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.2807660163473</v>
+        <v>204.9759422931586</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>986.2431031906915</v>
+        <v>770.2184964732505</v>
       </c>
       <c r="C8" t="n">
-        <v>593.067601693622</v>
+        <v>377.0429949761811</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>377.0429949761811</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>377.0429949761811</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>265.4829774041385</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X8" t="n">
-        <v>1429.582621940328</v>
+        <v>1567.203951264046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1033.091912860929</v>
+        <v>1170.713242184647</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.8590032756731</v>
+        <v>852.4426182128975</v>
       </c>
       <c r="C10" t="n">
-        <v>824.8590032756731</v>
+        <v>682.2375002788867</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>526.6043871814015</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="F10" t="n">
         <v>371.0455750406041</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.22271816768</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185757</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527727</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2985.818382551607</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2985.818382551607</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2985.818382551607</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2686.615622666088</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666088</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732883</v>
+        <v>1463.714265689662</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.803013306625</v>
+        <v>473.0040912619324</v>
       </c>
       <c r="C13" t="n">
-        <v>387.394170518808</v>
+        <v>473.0040912619324</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675166</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675166</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,22 +5197,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581895</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.410653902774</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1369.890256456411</v>
+        <v>1369.698325060127</v>
       </c>
       <c r="T13" t="n">
-        <v>1369.890256456411</v>
+        <v>1205.775548374555</v>
       </c>
       <c r="U13" t="n">
-        <v>1156.247739844506</v>
+        <v>992.1330317626503</v>
       </c>
       <c r="V13" t="n">
-        <v>962.0646698115238</v>
+        <v>797.9499617296684</v>
       </c>
       <c r="W13" t="n">
-        <v>750.5305428888953</v>
+        <v>586.4158348070398</v>
       </c>
       <c r="X13" t="n">
-        <v>750.5305428888953</v>
+        <v>586.4158348070398</v>
       </c>
       <c r="Y13" t="n">
-        <v>599.2147568517324</v>
+        <v>586.4158348070398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1393.015874768146</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2926.259159008783</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2655.948624858495</v>
       </c>
       <c r="W14" t="n">
-        <v>2609.032640260292</v>
+        <v>2356.745864972976</v>
       </c>
       <c r="X14" t="n">
-        <v>2291.376310339543</v>
+        <v>2039.089535052227</v>
       </c>
       <c r="Y14" t="n">
-        <v>1966.681876406338</v>
+        <v>1714.395101119022</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>254.6298380530032</v>
+        <v>366.9528931596985</v>
       </c>
       <c r="C16" t="n">
-        <v>254.6298380530032</v>
+        <v>313.4007785423226</v>
       </c>
       <c r="D16" t="n">
-        <v>242.3394434530798</v>
+        <v>229.5639405910312</v>
       </c>
       <c r="E16" t="n">
-        <v>158.5769064584761</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5434,13 +5434,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915621</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689336</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981106</v>
+        <v>631.6804227419686</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.0415815981106</v>
+        <v>480.3646367048059</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5607,10 +5607,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222421</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960418</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343059</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655151</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072231</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5835,19 +5835,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343043</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,31 +6139,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612377</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386531</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375468</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6309,19 +6309,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904113</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388009</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662628</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>95.84959395204436</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>95.84959395204436</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>579.4156798503576</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
         <v>579.4156798503576</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057095</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835515</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2658.65634142638</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>502.4016765227154</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374208</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>261.0422972872698</v>
       </c>
       <c r="L34" t="n">
-        <v>496.282672081206</v>
+        <v>536.8220577360523</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465402</v>
+        <v>723.1136360743163</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>906.3032701055256</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376594</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250195</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.7257283273689</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400716</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045798</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,16 +6959,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573995</v>
@@ -6977,10 +6977,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7026,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7415,13 +7415,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,19 +7430,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229842</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222403</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960401</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567326</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879418</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,10 +7682,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788154</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>400.1079634407288</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>266.7763031800773</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O3" t="n">
-        <v>452.6481618621951</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>317.8907133738741</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>400.1079634407288</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>348.2985274535465</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O6" t="n">
-        <v>232.4345549924661</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>217.3212662032442</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,22 +9483,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,22 +9720,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9957,22 +9957,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>163.9964000092955</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>105.1563108732264</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016892</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>166.3231752016896</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10674,16 +10674,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>228.1998931286865</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,22 +10905,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>321.2955121909783</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>31.25066139381773</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465762</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442489</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>55.71931615904592</v>
+        <v>3.945636997708211</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>4.216635939991832</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>48.21361592570793</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>44.40816088873649</v>
       </c>
       <c r="D16" t="n">
-        <v>70.83097891785431</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653371.9960400421</v>
+        <v>653371.996040042</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739361.9301827627</v>
+        <v>739361.9301827626</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>522963.3164707347</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707343</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="D2" t="n">
-        <v>522963.3164707345</v>
+        <v>522963.3164707347</v>
       </c>
       <c r="E2" t="n">
-        <v>462141.1679307613</v>
+        <v>462141.1679307611</v>
       </c>
       <c r="F2" t="n">
-        <v>462141.1679307613</v>
+        <v>462141.1679307612</v>
       </c>
       <c r="G2" t="n">
         <v>522963.316470735</v>
       </c>
       <c r="H2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="I2" t="n">
-        <v>522963.316470735</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="J2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="K2" t="n">
         <v>522963.3164707347</v>
       </c>
       <c r="L2" t="n">
-        <v>522963.3164707345</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="M2" t="n">
-        <v>522963.3164707344</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="N2" t="n">
-        <v>522963.3164707352</v>
+        <v>522963.3164707349</v>
       </c>
       <c r="O2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.316470735</v>
       </c>
       <c r="P2" t="n">
-        <v>522963.3164707351</v>
+        <v>522963.3164707349</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962313</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373742</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
@@ -26445,7 +26445,7 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701646</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106867.9638145546</v>
+        <v>110016.3144013287</v>
       </c>
       <c r="C6" t="n">
-        <v>289072.9121064101</v>
+        <v>283874.9714353838</v>
       </c>
       <c r="D6" t="n">
-        <v>284209.6298125352</v>
+        <v>276473.3405891437</v>
       </c>
       <c r="E6" t="n">
-        <v>222748.0912331389</v>
+        <v>222538.359686449</v>
       </c>
       <c r="F6" t="n">
-        <v>334870.6527071833</v>
+        <v>334660.9211604936</v>
       </c>
       <c r="G6" t="n">
-        <v>295524.8096032139</v>
+        <v>295524.8096032138</v>
       </c>
       <c r="H6" t="n">
         <v>342950.1351398957</v>
       </c>
       <c r="I6" t="n">
-        <v>342950.1351398957</v>
+        <v>342950.1351398955</v>
       </c>
       <c r="J6" t="n">
-        <v>129908.2175426101</v>
+        <v>136424.5026971828</v>
       </c>
       <c r="K6" t="n">
         <v>336710.3667371125</v>
       </c>
       <c r="L6" t="n">
-        <v>281527.7778024912</v>
+        <v>277478.9405920195</v>
       </c>
       <c r="M6" t="n">
-        <v>300749.3056802719</v>
+        <v>299697.6106690845</v>
       </c>
       <c r="N6" t="n">
-        <v>342950.1351398958</v>
+        <v>342950.1351398957</v>
       </c>
       <c r="O6" t="n">
-        <v>315182.4410971245</v>
+        <v>315182.4410971244</v>
       </c>
       <c r="P6" t="n">
         <v>342950.1351398957</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,25 +26808,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551369</v>
+        <v>17.58004954287449</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.0115259043793</v>
+        <v>131.6862952556866</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,13 +27436,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>66.31852263746073</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>190.9247738993884</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>204.0106705702507</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>346.4228159371663</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>119.7149749292797</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.99025433061547</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,19 +27783,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>267.9298313995869</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>63.49608354753454</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.1094766807477</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>95.32389741630777</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,10 +27910,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>88.00173781849168</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14.55738747233838</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473188</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634528836</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>37.61298457733328</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,16 +29229,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634528921</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901255</v>
       </c>
       <c r="L26" t="n">
-        <v>86.65052755599493</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>81.10808140893403</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.27291196566659</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254356</v>
+        <v>76.79385455031439</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,22 +30174,22 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30405,10 +30405,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30639,25 +30639,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668725</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,16 +30888,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634527857</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -33664,7 +33664,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.189241499578</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>250.9894721029447</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>177.1793678467439</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O3" t="n">
-        <v>359.9606029733062</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>168.1656617761468</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>250.9894721029447</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>255.9114054042346</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O6" t="n">
-        <v>139.7469961035772</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>74.2628630240068</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257281</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488436</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133992</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873208</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36364,7 +36364,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36440,22 +36440,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716078</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907922</v>
       </c>
       <c r="L26" t="n">
-        <v>584.9538525242059</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>73.9360531523773</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851017</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>22.71185353989303</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>73.9360531523773</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>525.5925267547203</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.9855989767257</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273753</v>
+        <v>75.16693519537661</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>73.9360531523777</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791174</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047505017</v>
+        <v>197.8808906882726</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37394,16 +37394,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>135.5123342397976</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094874</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37625,22 +37625,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,16 +38184,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.09276664468034</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
